--- a/data/trans_orig/P33B1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Edad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24923</v>
+        <v>21790</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01716576135722421</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06111678951988564</v>
+        <v>0.05343324407226156</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -762,19 +762,19 @@
         <v>15297</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6850</v>
+        <v>5996</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33305</v>
+        <v>31774</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04219811434613239</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01889665020613786</v>
+        <v>0.01653999416998753</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09187147729106884</v>
+        <v>0.08764975107807975</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -783,19 +783,19 @@
         <v>22297</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10802</v>
+        <v>10663</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44712</v>
+        <v>44866</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02894619544089988</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01402364094182317</v>
+        <v>0.01384229521688631</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05804444152527412</v>
+        <v>0.05824383946192462</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>11589</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4538</v>
+        <v>3464</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26928</v>
+        <v>26430</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02841999920213226</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01112883770276977</v>
+        <v>0.008495542059050259</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06603353139311842</v>
+        <v>0.06481241227814012</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -833,19 +833,19 @@
         <v>18781</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8492</v>
+        <v>8732</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35051</v>
+        <v>34023</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05180811821390077</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02342502095529159</v>
+        <v>0.02408789344703291</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09668803824159232</v>
+        <v>0.09385283353797558</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -854,19 +854,19 @@
         <v>30371</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16092</v>
+        <v>16265</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49388</v>
+        <v>49351</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03942664306343386</v>
+        <v>0.03942664306343385</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02089020455208647</v>
+        <v>0.02111535084537674</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06411488037444278</v>
+        <v>0.06406707759398274</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>41616</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25734</v>
+        <v>25282</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>64351</v>
+        <v>65511</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1020515003607612</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06310676857510374</v>
+        <v>0.06199629505822209</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1578024330160498</v>
+        <v>0.1606483835928698</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>26</v>
@@ -904,19 +904,19 @@
         <v>44777</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28760</v>
+        <v>29806</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>64604</v>
+        <v>62797</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1235176158440527</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07933396154424376</v>
+        <v>0.08222009813582774</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1782108443278213</v>
+        <v>0.1732274617486046</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -925,19 +925,19 @@
         <v>86393</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63469</v>
+        <v>63720</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>115925</v>
+        <v>114689</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1121536333322615</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08239496812465869</v>
+        <v>0.08272094565886842</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1504921938255152</v>
+        <v>0.1488874504731003</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>347588</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>323129</v>
+        <v>321747</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>367301</v>
+        <v>368614</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8523627390798826</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7923844897655981</v>
+        <v>0.7889963641071355</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9007047012445771</v>
+        <v>0.903923446808826</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>165</v>
@@ -975,19 +975,19 @@
         <v>283657</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>261608</v>
+        <v>262066</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>305771</v>
+        <v>305351</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7824761515959141</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7216524017125399</v>
+        <v>0.7229180494585005</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8434786236120333</v>
+        <v>0.8423188900973484</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>312</v>
@@ -996,19 +996,19 @@
         <v>631245</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>593428</v>
+        <v>598039</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>659085</v>
+        <v>658026</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8194735281634048</v>
+        <v>0.8194735281634047</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7703807704551777</v>
+        <v>0.7763666395504978</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8556160182411979</v>
+        <v>0.8542408038056499</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>9961</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4109</v>
+        <v>4162</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20532</v>
+        <v>19590</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0208864979136508</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008616533021131419</v>
+        <v>0.008726555967112824</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0430529318715491</v>
+        <v>0.04107805968946367</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -1121,19 +1121,19 @@
         <v>23695</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14899</v>
+        <v>14613</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35071</v>
+        <v>35407</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.04728659043609495</v>
+        <v>0.04728659043609494</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0297340517051349</v>
+        <v>0.02916231834832854</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06999096512529324</v>
+        <v>0.07066105637412275</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>28</v>
@@ -1142,19 +1142,19 @@
         <v>33655</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>22935</v>
+        <v>24089</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>49741</v>
+        <v>48828</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0344130831407107</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02345130997459597</v>
+        <v>0.02463143333040489</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05086162735668016</v>
+        <v>0.04992782346997405</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>16624</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7990</v>
+        <v>7675</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28946</v>
+        <v>30351</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03485969708444248</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01675462368742332</v>
+        <v>0.01609482639963529</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06069834306278315</v>
+        <v>0.0636440116319638</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1192,19 +1192,19 @@
         <v>19858</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12025</v>
+        <v>12368</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30795</v>
+        <v>30366</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03963084922035978</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02399894967599357</v>
+        <v>0.02468263729266291</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0614566208967471</v>
+        <v>0.06059977658857384</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -1213,19 +1213,19 @@
         <v>36483</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23954</v>
+        <v>25717</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51221</v>
+        <v>54634</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03730428685028847</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02449353206438022</v>
+        <v>0.02629621426263685</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05237509830126588</v>
+        <v>0.05586471692466558</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>74223</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56319</v>
+        <v>57066</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>96425</v>
+        <v>95321</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1556400047964203</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.118095949949792</v>
+        <v>0.1196622266798296</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2021956933704548</v>
+        <v>0.1998794928549878</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>88</v>
@@ -1263,19 +1263,19 @@
         <v>90374</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74033</v>
+        <v>74713</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>110733</v>
+        <v>111579</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1803569007481304</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1477454319517262</v>
+        <v>0.1491033865575242</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2209873360434347</v>
+        <v>0.2226762945649274</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>138</v>
@@ -1284,19 +1284,19 @@
         <v>164597</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>138968</v>
+        <v>136929</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>192663</v>
+        <v>193303</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1683041725206411</v>
+        <v>0.168304172520641</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.142097949152713</v>
+        <v>0.1400127520320464</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1970025154726016</v>
+        <v>0.1976565250428486</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>376082</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>351736</v>
+        <v>353075</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>397021</v>
+        <v>397408</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7886138002054864</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7375631217587487</v>
+        <v>0.7403693551544379</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8325210237497267</v>
+        <v>0.8333318587009659</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>332</v>
@@ -1334,19 +1334,19 @@
         <v>367156</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>346736</v>
+        <v>343665</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>389030</v>
+        <v>385912</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7327256595954147</v>
+        <v>0.7327256595954148</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6919740748163238</v>
+        <v>0.6858448308541643</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7763779778110337</v>
+        <v>0.7701552557862258</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>566</v>
@@ -1355,19 +1355,19 @@
         <v>743238</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>709269</v>
+        <v>710335</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>772361</v>
+        <v>774420</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7599784574883597</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7252436053663738</v>
+        <v>0.726333984984794</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7897570949054341</v>
+        <v>0.7918622289043438</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>26219</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16934</v>
+        <v>16737</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39534</v>
+        <v>38844</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04223185169439092</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02727672498241499</v>
+        <v>0.02695808699069988</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06367841648000797</v>
+        <v>0.06256668922049806</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -1480,19 +1480,19 @@
         <v>32940</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>24754</v>
+        <v>24491</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44328</v>
+        <v>44816</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05294590440606507</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03978785014516512</v>
+        <v>0.03936506938686287</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07125128555816038</v>
+        <v>0.07203584635152968</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>66</v>
@@ -1501,19 +1501,19 @@
         <v>59159</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>46613</v>
+        <v>46480</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>74996</v>
+        <v>76226</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04759449130700914</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03750072699110939</v>
+        <v>0.03739435472779443</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0603355381539158</v>
+        <v>0.06132505393339969</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>31214</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>20682</v>
+        <v>21363</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>44798</v>
+        <v>46225</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05027674362282547</v>
+        <v>0.05027674362282548</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03331310486146394</v>
+        <v>0.0344094694354834</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07215757701529654</v>
+        <v>0.07445614501768506</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>55</v>
@@ -1551,19 +1551,19 @@
         <v>40873</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>30998</v>
+        <v>30112</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>52442</v>
+        <v>52753</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06569697909218813</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04982441226736019</v>
+        <v>0.0484010879669759</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08429347382359943</v>
+        <v>0.08479339878896897</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>82</v>
@@ -1572,19 +1572,19 @@
         <v>72086</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>57308</v>
+        <v>56945</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>88998</v>
+        <v>87937</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.05799494025572065</v>
+        <v>0.05799494025572066</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04610558068077807</v>
+        <v>0.04581324631700075</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07160075667582838</v>
+        <v>0.07074680865202843</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>92142</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>74277</v>
+        <v>73529</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>111780</v>
+        <v>112249</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1484164220765399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1196394627063294</v>
+        <v>0.1184350181613968</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1800465439212457</v>
+        <v>0.1808025357817892</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>203</v>
@@ -1622,19 +1622,19 @@
         <v>140886</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>123777</v>
+        <v>122849</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>159871</v>
+        <v>159114</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2264536037050793</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1989534557409485</v>
+        <v>0.1974619489657191</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.25697010432589</v>
+        <v>0.2557532591237991</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>293</v>
@@ -1643,19 +1643,19 @@
         <v>233028</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>207187</v>
+        <v>208053</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>256506</v>
+        <v>261792</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1874758977688988</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.166686409962982</v>
+        <v>0.1673828039494225</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2063641420138171</v>
+        <v>0.2106171279180338</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>471262</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>448405</v>
+        <v>445765</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>493430</v>
+        <v>492838</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7590749826062437</v>
+        <v>0.7590749826062438</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7222585106932716</v>
+        <v>0.7180069299935863</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7947820792377013</v>
+        <v>0.7938283403470245</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>544</v>
@@ -1693,19 +1693,19 @@
         <v>407441</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>387668</v>
+        <v>385847</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>427610</v>
+        <v>429161</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6549035127966675</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6231212160455872</v>
+        <v>0.6201943399282319</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.687321875143901</v>
+        <v>0.6898156308697331</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>951</v>
@@ -1714,19 +1714,19 @@
         <v>878703</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>851676</v>
+        <v>849948</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>908862</v>
+        <v>909963</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7069346706683713</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6851907379007083</v>
+        <v>0.6838011963889111</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7311982750668096</v>
+        <v>0.7320844685804176</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>43114</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31370</v>
+        <v>30879</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59178</v>
+        <v>59587</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06153736882831547</v>
+        <v>0.06153736882831545</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04477423758823774</v>
+        <v>0.04407431566512643</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08446562420978919</v>
+        <v>0.08504908657633463</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>102</v>
@@ -1839,19 +1839,19 @@
         <v>70031</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>58968</v>
+        <v>57077</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>83837</v>
+        <v>83352</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.095086564990156</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08006568755816339</v>
+        <v>0.07749789797018648</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1138323763211784</v>
+        <v>0.1131738304776777</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>138</v>
@@ -1860,19 +1860,19 @@
         <v>113145</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>95077</v>
+        <v>95180</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>133293</v>
+        <v>134596</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07873074869116961</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06615853848909121</v>
+        <v>0.06623032825372184</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09275025740824486</v>
+        <v>0.09365728505333897</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>48381</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36016</v>
+        <v>35112</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>62882</v>
+        <v>62934</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06905546124800183</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05140566127245603</v>
+        <v>0.05011594649843606</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08975262453304902</v>
+        <v>0.08982622076166064</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>124</v>
@@ -1910,19 +1910,19 @@
         <v>77798</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>65927</v>
+        <v>65123</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>92167</v>
+        <v>91850</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1056327510437572</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08951491857076625</v>
+        <v>0.08842334448057883</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1251427538399746</v>
+        <v>0.1247123236040707</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>172</v>
@@ -1931,19 +1931,19 @@
         <v>126179</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>109093</v>
+        <v>107945</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>146806</v>
+        <v>145739</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08780068646229261</v>
+        <v>0.08780068646229262</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07591141204198688</v>
+        <v>0.07511217137496499</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1021535472980007</v>
+        <v>0.1014112560174342</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>136091</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>116831</v>
+        <v>115830</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>157583</v>
+        <v>157763</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.194244309681911</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1667546832429684</v>
+        <v>0.1653261282447518</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2249209865401998</v>
+        <v>0.2251773455159835</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>282</v>
@@ -1981,19 +1981,19 @@
         <v>172623</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>154234</v>
+        <v>155178</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>189064</v>
+        <v>191626</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.23438466459251</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2094168441467523</v>
+        <v>0.2106974088049709</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2567080355759696</v>
+        <v>0.2601863076405896</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>423</v>
@@ -2002,19 +2002,19 @@
         <v>308714</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>282659</v>
+        <v>280732</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>339060</v>
+        <v>339022</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2148155438324537</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1966856015913016</v>
+        <v>0.1953445369777116</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2359313593132248</v>
+        <v>0.2359049647185071</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>473031</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>446854</v>
+        <v>448408</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>496867</v>
+        <v>496107</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6751628602417717</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6378004931722511</v>
+        <v>0.6400183420071419</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7091854261945502</v>
+        <v>0.708100489127433</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>632</v>
@@ -2052,19 +2052,19 @@
         <v>416043</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>394994</v>
+        <v>393595</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>437673</v>
+        <v>436778</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5648960193735768</v>
+        <v>0.5648960193735769</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5363160619256728</v>
+        <v>0.5344165545968274</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5942643656624139</v>
+        <v>0.5930496777254382</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1072</v>
@@ -2073,19 +2073,19 @@
         <v>889074</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>854093</v>
+        <v>855941</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>920358</v>
+        <v>923777</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6186530210140839</v>
+        <v>0.618653021014084</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5943117461361723</v>
+        <v>0.5955979363973347</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6404218234985845</v>
+        <v>0.6428011768791437</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>56578</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>44765</v>
+        <v>44373</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>71886</v>
+        <v>71550</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.09301499014800321</v>
+        <v>0.0930149901480032</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07359380374690976</v>
+        <v>0.0729504787027553</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1181816037650239</v>
+        <v>0.1176294870830134</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>148</v>
@@ -2198,19 +2198,19 @@
         <v>97205</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>84027</v>
+        <v>83208</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>112378</v>
+        <v>111775</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1599838385094014</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1382949961960112</v>
+        <v>0.1369467465056082</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.184956306875646</v>
+        <v>0.1839641149813903</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>211</v>
@@ -2219,19 +2219,19 @@
         <v>153783</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>134769</v>
+        <v>134426</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>173457</v>
+        <v>173902</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1264809370047474</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1108428991006161</v>
+        <v>0.1105604820046551</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1426619010337763</v>
+        <v>0.1430284797530494</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>41280</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31045</v>
+        <v>30687</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54853</v>
+        <v>53621</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.06786489614671917</v>
+        <v>0.06786489614671916</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05103884952221181</v>
+        <v>0.05045080736752836</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09017937181396153</v>
+        <v>0.08815380826648087</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>151</v>
@@ -2269,19 +2269,19 @@
         <v>90097</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>78165</v>
+        <v>77076</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>103964</v>
+        <v>104158</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1482843288246534</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1286475624485588</v>
+        <v>0.1268547665550894</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1711083816470381</v>
+        <v>0.1714262590166173</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>197</v>
@@ -2290,19 +2290,19 @@
         <v>131376</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>113502</v>
+        <v>114019</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>150489</v>
+        <v>150024</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1080524240212552</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09335132124319372</v>
+        <v>0.0937764786841392</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1237721694278992</v>
+        <v>0.1233892079330853</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>156239</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>138145</v>
+        <v>138183</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>178033</v>
+        <v>177603</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2568603197671377</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2271129782250185</v>
+        <v>0.2271748878479219</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2926892945206901</v>
+        <v>0.2919832812246059</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>293</v>
@@ -2340,19 +2340,19 @@
         <v>166911</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>150918</v>
+        <v>152255</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>183751</v>
+        <v>181872</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2747073193416681</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2483865601483145</v>
+        <v>0.2505875148948365</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3024240499153842</v>
+        <v>0.2993319449070055</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>470</v>
@@ -2361,19 +2361,19 @@
         <v>323149</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>297191</v>
+        <v>299348</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>349639</v>
+        <v>353440</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2657788954023407</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2444292929890174</v>
+        <v>0.2462030716540389</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.287566012245204</v>
+        <v>0.2906921216267986</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>354168</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>330039</v>
+        <v>331917</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>377915</v>
+        <v>378045</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5822597939381401</v>
+        <v>0.5822597939381399</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5425911057199575</v>
+        <v>0.5456789298795049</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6213001499819268</v>
+        <v>0.6215131111499749</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>408</v>
@@ -2411,19 +2411,19 @@
         <v>253382</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>233271</v>
+        <v>235239</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>270628</v>
+        <v>271709</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.417024513324277</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3839256982708084</v>
+        <v>0.3871640869349218</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4454087413202305</v>
+        <v>0.4471881497155105</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>784</v>
@@ -2432,19 +2432,19 @@
         <v>607549</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>577758</v>
+        <v>576874</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>639190</v>
+        <v>637011</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.4996877435716566</v>
+        <v>0.4996877435716567</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4751856459422412</v>
+        <v>0.474458581835295</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5257111759093318</v>
+        <v>0.5239189967510478</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>45061</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>35426</v>
+        <v>34857</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>55909</v>
+        <v>56335</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1106941214005375</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08702546856209828</v>
+        <v>0.08562700769051523</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1373422870031569</v>
+        <v>0.1383889355397062</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>129</v>
@@ -2557,19 +2557,19 @@
         <v>72960</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>62534</v>
+        <v>61010</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>86614</v>
+        <v>83492</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1663474161184635</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1425770571513928</v>
+        <v>0.1391027280618725</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1974781828822364</v>
+        <v>0.1903622119260682</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>194</v>
@@ -2578,19 +2578,19 @@
         <v>118021</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>104315</v>
+        <v>104386</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>134516</v>
+        <v>134598</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1395578497125574</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1233514667460154</v>
+        <v>0.1234343823636402</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.159063458237794</v>
+        <v>0.159160220063545</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>29940</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>21969</v>
+        <v>21689</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>39654</v>
+        <v>39705</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07354710774242425</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05396609177988342</v>
+        <v>0.05327915782085527</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09741063065401258</v>
+        <v>0.09753583316351541</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>105</v>
@@ -2628,19 +2628,19 @@
         <v>54651</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>45248</v>
+        <v>44507</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>64689</v>
+        <v>64561</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1246036816509669</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1031661926300388</v>
+        <v>0.1014758145485728</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1474901322704905</v>
+        <v>0.147198227978142</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>147</v>
@@ -2649,19 +2649,19 @@
         <v>84590</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>72844</v>
+        <v>70931</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>99140</v>
+        <v>97664</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.100026817260216</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08613734044310925</v>
+        <v>0.0838748155326452</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1172313013809803</v>
+        <v>0.1154864973144406</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>108366</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>93898</v>
+        <v>94914</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>123543</v>
+        <v>125512</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2662035991879848</v>
+        <v>0.2662035991879847</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2306615154054588</v>
+        <v>0.2331578079231148</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3034846135191245</v>
+        <v>0.3083219688959479</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>272</v>
@@ -2699,19 +2699,19 @@
         <v>137328</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>123274</v>
+        <v>124072</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>151047</v>
+        <v>152275</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.3131063465237472</v>
+        <v>0.3131063465237471</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.281063171254112</v>
+        <v>0.2828838299360191</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3443870320352141</v>
+        <v>0.3471849532365929</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>427</v>
@@ -2720,19 +2720,19 @@
         <v>245694</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>225630</v>
+        <v>226480</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>266827</v>
+        <v>266491</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2905289902191594</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2668036825220501</v>
+        <v>0.2678095126642738</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3155188402497585</v>
+        <v>0.315121526826578</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>223713</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>206909</v>
+        <v>207013</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>239638</v>
+        <v>240911</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5495551716690535</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5082760605765737</v>
+        <v>0.5085309002123574</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5886744604697737</v>
+        <v>0.5918027514674988</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>320</v>
@@ -2770,19 +2770,19 @@
         <v>173660</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>157673</v>
+        <v>158954</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>188541</v>
+        <v>188330</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.3959425557068224</v>
+        <v>0.3959425557068223</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3594931241382203</v>
+        <v>0.3624129753945081</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4298717644837956</v>
+        <v>0.4293901710012443</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>628</v>
@@ -2791,19 +2791,19 @@
         <v>397372</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>375371</v>
+        <v>376078</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>420577</v>
+        <v>419954</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4698863428080672</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4438704341335727</v>
+        <v>0.4447060365278456</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4973257110195951</v>
+        <v>0.4965891015437052</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>47347</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>37916</v>
+        <v>36972</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>58948</v>
+        <v>59351</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1526337654044573</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.122230721046547</v>
+        <v>0.1191870311808227</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1900320017971062</v>
+        <v>0.1913332925542402</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>171</v>
@@ -2916,19 +2916,19 @@
         <v>99986</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>86234</v>
+        <v>86365</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>113840</v>
+        <v>114386</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2152054620643349</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1856058827220029</v>
+        <v>0.1858881565952462</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2450227686349066</v>
+        <v>0.2461989181820372</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>240</v>
@@ -2937,19 +2937,19 @@
         <v>147333</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>129990</v>
+        <v>130893</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>164849</v>
+        <v>164358</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.1901545403916257</v>
+        <v>0.1901545403916256</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1677714298913853</v>
+        <v>0.168936471168429</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2127612692478074</v>
+        <v>0.2121274519685826</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>35039</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>26818</v>
+        <v>26526</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>44821</v>
+        <v>45291</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1129577074893673</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08645411134560868</v>
+        <v>0.08551407963135665</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1444926922745038</v>
+        <v>0.1460081590954857</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>155</v>
@@ -2987,19 +2987,19 @@
         <v>79822</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>68014</v>
+        <v>69641</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>92139</v>
+        <v>92110</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1718038152004492</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1463889164236881</v>
+        <v>0.1498920388470061</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1983150615794699</v>
+        <v>0.1982526585905307</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>210</v>
@@ -3008,19 +3008,19 @@
         <v>114861</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>100676</v>
+        <v>101152</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>131337</v>
+        <v>130322</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1482444534809294</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1299372465035994</v>
+        <v>0.1305508713608806</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1695093853928032</v>
+        <v>0.1681988745382923</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>82053</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>68818</v>
+        <v>69847</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>95129</v>
+        <v>95815</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.264517403802642</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2218504722805195</v>
+        <v>0.2251684340138442</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3066706674340425</v>
+        <v>0.3088820365279225</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>295</v>
@@ -3058,19 +3058,19 @@
         <v>141541</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>128018</v>
+        <v>128894</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>156262</v>
+        <v>154440</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.304645969030148</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2755392654110588</v>
+        <v>0.2774245774076758</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3363306932051824</v>
+        <v>0.3324089949914935</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>422</v>
@@ -3079,19 +3079,19 @@
         <v>223594</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>204509</v>
+        <v>205474</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>243599</v>
+        <v>243680</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2885802780226505</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2639484979341237</v>
+        <v>0.2651934867913459</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3143996004002576</v>
+        <v>0.3145037480579677</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>145759</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>130450</v>
+        <v>130103</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>160088</v>
+        <v>160870</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4698911233035333</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4205368738570273</v>
+        <v>0.419419758549313</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5160847560152586</v>
+        <v>0.5186038029806108</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>260</v>
@@ -3129,19 +3129,19 @@
         <v>143260</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>128364</v>
+        <v>129137</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>158315</v>
+        <v>158176</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3083447537050679</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2762829628749652</v>
+        <v>0.2779478501515053</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3407487427593527</v>
+        <v>0.3404506336545867</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>467</v>
@@ -3150,19 +3150,19 @@
         <v>289019</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>269229</v>
+        <v>267882</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>310416</v>
+        <v>310722</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.3730207281047945</v>
+        <v>0.3730207281047944</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.347479087442793</v>
+        <v>0.3457400146034318</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4006363358508612</v>
+        <v>0.4010310053755535</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>235280</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>206076</v>
+        <v>206708</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>264933</v>
+        <v>269267</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.06661975665985197</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.05835063849367236</v>
+        <v>0.0585295846100426</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.07501614326059951</v>
+        <v>0.07624329992512313</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>622</v>
@@ -3275,19 +3275,19 @@
         <v>412114</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>381545</v>
+        <v>379880</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>445275</v>
+        <v>445774</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1103965151694881</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1022078459343996</v>
+        <v>0.1017618647393944</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1192796869766713</v>
+        <v>0.1194133805324536</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>886</v>
@@ -3296,19 +3296,19 @@
         <v>647393</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>602924</v>
+        <v>607366</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>688936</v>
+        <v>698439</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.08911479661043448</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.08299352508266973</v>
+        <v>0.08360502204196603</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.09483320185284366</v>
+        <v>0.09614141112057285</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>214067</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>185794</v>
+        <v>187187</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>244532</v>
+        <v>244852</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.06061349391225822</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05260780373627665</v>
+        <v>0.05300236653583103</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06923947943249251</v>
+        <v>0.06933018802809016</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>618</v>
@@ -3346,19 +3346,19 @@
         <v>381879</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>348811</v>
+        <v>351523</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>413074</v>
+        <v>413921</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1022973834238717</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.09343902925177418</v>
+        <v>0.09416551089309272</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1106538191373908</v>
+        <v>0.1108806260792953</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>852</v>
@@ -3367,19 +3367,19 @@
         <v>595947</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>556599</v>
+        <v>555752</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>643829</v>
+        <v>638804</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.0820330962716474</v>
+        <v>0.08203309627164738</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07661683652636855</v>
+        <v>0.07650017413800349</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08862415950915215</v>
+        <v>0.0879325229708852</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>690730</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>641631</v>
+        <v>642736</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>737297</v>
+        <v>739588</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1955812375790776</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.181678796740108</v>
+        <v>0.1819914932050476</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2087667818162007</v>
+        <v>0.2094153471110277</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1459</v>
@@ -3417,19 +3417,19 @@
         <v>894439</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>849000</v>
+        <v>852482</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>935852</v>
+        <v>941280</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2396012532073174</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2274292461803543</v>
+        <v>0.2283619451321049</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2506949632769467</v>
+        <v>0.2521490281308564</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2217</v>
@@ -3438,19 +3438,19 @@
         <v>1585169</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1515184</v>
+        <v>1522296</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1649437</v>
+        <v>1653847</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2182012771593163</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2085677130105648</v>
+        <v>0.2095467200436471</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2270478325446646</v>
+        <v>0.2276549228742693</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>2391603</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2332784</v>
+        <v>2336232</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2449256</v>
+        <v>2452241</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.6771855118488123</v>
+        <v>0.6771855118488121</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6605309462714204</v>
+        <v>0.661507386994751</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6935102402722757</v>
+        <v>0.6943552974259629</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2661</v>
@@ -3488,19 +3488,19 @@
         <v>2044599</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1990281</v>
+        <v>1988968</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2099101</v>
+        <v>2101330</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5477048481993226</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5331543995559537</v>
+        <v>0.5328025702109188</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5623049352658647</v>
+        <v>0.5629018616536896</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4780</v>
@@ -3509,19 +3509,19 @@
         <v>4436201</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4353397</v>
+        <v>4357533</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4513043</v>
+        <v>4518430</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6106508299586018</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.599252630077587</v>
+        <v>0.5998220396572841</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6212282167596928</v>
+        <v>0.6219697978146068</v>
       </c>
     </row>
     <row r="43">
